--- a/medicine/Enfance/Tomorrow_(série_littéraire)/Tomorrow_(série_littéraire).xlsx
+++ b/medicine/Enfance/Tomorrow_(série_littéraire)/Tomorrow_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tomorrow_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Tomorrow_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tomorrow est une série de sept romans d'aventures pour jeunes adultes de l'écrivain Australien John Marsden parue dans les années 1990.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tomorrow_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Tomorrow_(série_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En rentrant d'une randonnée dans le bush australien, un groupe d'amis s'aperçoit que leur pays a subi l'invasion d'une puissance étrangère...
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tomorrow_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Tomorrow_(série_littéraire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Apocalypse, J'ai lu, coll. Jeunes adultes, 2000 ((en) Tomorrow, When the War Began, 1993)Réédité aux éditions Hachette Jeunesse dans la collection Black Moon en 2012
 Opération survie, J'ai lu, coll. Jeunes adultes, 2000 ((en) The Dead of the Night, 1994)Réédité aux éditions Hachette Jeunesse dans la collection Black Moon en 2012
@@ -552,12 +568,7 @@
 Aller simple vers l'enfer, J'ai lu, coll. Jeunes adultes, 2000 ((en) Darkness, Be My Friend, 1996)
 Attention danger !, J'ai lu, coll. Jeunes adultes, 2000 ((en) Burning for Revenge, 1997)
 Chasse nocturne, J'ai lu, coll. Jeunes adultes, 2000 ((en) The Night is for Hunting, 1998)
-(en) The Other Side of Dawn, 1999
-The Ellie Chronicles
-Cette série de trois livres détaille la vie d'Ellie après la guerre.
-(en) While I Live, 2003
-(en) Incurable, 2005
-(en) Circle of Flight, 2006</t>
+(en) The Other Side of Dawn, 1999</t>
         </is>
       </c>
     </row>
@@ -567,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tomorrow_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Tomorrow_(série_littéraire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +593,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>The Ellie Chronicles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette série de trois livres détaille la vie d'Ellie après la guerre.
+(en) While I Live, 2003
+(en) Incurable, 2005
+(en) Circle of Flight, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tomorrow_(série_littéraire)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tomorrow_(s%C3%A9rie_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ellie Linton
 Corrie Mackenzie
@@ -598,44 +650,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tomorrow_(s%C3%A9rie_litt%C3%A9raire)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tomorrow_(s%C3%A9rie_litt%C3%A9raire)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Adaptation cinématographique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier livre a été porté à l'écran en 2010 dans Demain, quand la guerre a commencé de Stuart Beattie.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tomorrow_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Tomorrow_(série_littéraire)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,10 +671,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Adaptation cinématographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier livre a été porté à l'écran en 2010 dans Demain, quand la guerre a commencé de Stuart Beattie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tomorrow_(série_littéraire)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tomorrow_(s%C3%A9rie_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Série télévisée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Une série en six épisodes sort en 2016.
 </t>
